--- a/data/trans_orig/P6701-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>37811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28235</v>
+        <v>27424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51112</v>
+        <v>51770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1248686114956615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09324545788100792</v>
+        <v>0.09056836211341134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1687969013938296</v>
+        <v>0.1709689110607136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>29775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20428</v>
+        <v>19658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41261</v>
+        <v>40710</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1531540837011635</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1050768473626583</v>
+        <v>0.1011163893036362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2122304567057121</v>
+        <v>0.2094007628081693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -785,19 +785,19 @@
         <v>67586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53669</v>
+        <v>52357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86204</v>
+        <v>84442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1359283587472098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1079385779030514</v>
+        <v>0.1053008354468226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1733727403773452</v>
+        <v>0.1698295977273439</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>32453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22549</v>
+        <v>20270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45325</v>
+        <v>44613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1071752595104069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07446915900078997</v>
+        <v>0.06694183576647869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1496838787356251</v>
+        <v>0.1473348689179161</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -835,19 +835,19 @@
         <v>29752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19949</v>
+        <v>20615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42545</v>
+        <v>42470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1530346649230951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1026104200163849</v>
+        <v>0.1060364813165951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2188367884218737</v>
+        <v>0.218452520737427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -856,19 +856,19 @@
         <v>62205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48659</v>
+        <v>47757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80488</v>
+        <v>78679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1251064939365362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09786332868927955</v>
+        <v>0.09604932467139012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1618774466436285</v>
+        <v>0.1582380094708499</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>129124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112749</v>
+        <v>112215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>147625</v>
+        <v>148190</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4264282715365487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3723504288016131</v>
+        <v>0.3705867951600488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.48752917077818</v>
+        <v>0.4893925701110227</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -906,19 +906,19 @@
         <v>69864</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55434</v>
+        <v>57268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84143</v>
+        <v>85770</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3593577690125249</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2851343293410155</v>
+        <v>0.2945655985986778</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4328034346563454</v>
+        <v>0.4411722952049739</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>186</v>
@@ -927,19 +927,19 @@
         <v>198988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177703</v>
+        <v>174083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>221546</v>
+        <v>222106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4002034024390566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3573946517073115</v>
+        <v>0.3501153184284357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4455725016419823</v>
+        <v>0.4466976110161401</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>63537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49051</v>
+        <v>50120</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78080</v>
+        <v>80206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2098294992305526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1619889763570682</v>
+        <v>0.165520180764973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2578575519562671</v>
+        <v>0.2648795327169118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -977,19 +977,19 @@
         <v>34943</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25108</v>
+        <v>24660</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48832</v>
+        <v>47099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1797354996598264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1291464515616616</v>
+        <v>0.1268418212602372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2511743867221653</v>
+        <v>0.242263030683222</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -998,19 +998,19 @@
         <v>98480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80064</v>
+        <v>81402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119148</v>
+        <v>119787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1980626096194364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1610246559226535</v>
+        <v>0.1637162071283154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2396291783259351</v>
+        <v>0.240914174286003</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>39879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28686</v>
+        <v>28636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53443</v>
+        <v>52646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1316983582268303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09473484699275211</v>
+        <v>0.09457049498368621</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1764959090891372</v>
+        <v>0.1738620669031483</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1048,19 +1048,19 @@
         <v>30079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20539</v>
+        <v>21206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41137</v>
+        <v>40731</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1547179827033901</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1056469688907374</v>
+        <v>0.1090790112280009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.211596839960973</v>
+        <v>0.2095071008880738</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>66</v>
@@ -1069,19 +1069,19 @@
         <v>69958</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54626</v>
+        <v>54401</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89308</v>
+        <v>86792</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1406991352577609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1098634297323396</v>
+        <v>0.1094100383957702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.179615461780844</v>
+        <v>0.1745546037418243</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>22555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13632</v>
+        <v>14063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34096</v>
+        <v>35430</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08758090171646582</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05293512200661234</v>
+        <v>0.05460824582875382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1323932868924886</v>
+        <v>0.1375768927393505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1194,19 +1194,19 @@
         <v>10859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5037</v>
+        <v>5128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20020</v>
+        <v>20750</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06500942680508488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03015732237198131</v>
+        <v>0.03070262782935249</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1198523177394207</v>
+        <v>0.1242237810314614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1215,19 +1215,19 @@
         <v>33414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23528</v>
+        <v>22241</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48691</v>
+        <v>46286</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07870071352835423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05541658727387014</v>
+        <v>0.0523839727405731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1146835248889202</v>
+        <v>0.1090194515789633</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>33684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23291</v>
+        <v>23217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48042</v>
+        <v>47430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1307947247290097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09043963255621904</v>
+        <v>0.09015134610286754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1865459458988192</v>
+        <v>0.1841697608234782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>25888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18209</v>
+        <v>17236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37133</v>
+        <v>36422</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1549864438309288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.109011669970154</v>
+        <v>0.1031872280273223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2223075656360474</v>
+        <v>0.2180520402979946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -1286,19 +1286,19 @@
         <v>59572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44101</v>
+        <v>44919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74450</v>
+        <v>75631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1403123578948715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1038731321172094</v>
+        <v>0.1058006842165694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.175355881473888</v>
+        <v>0.178137251609377</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>99246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82732</v>
+        <v>82642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117186</v>
+        <v>116914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3853716928787477</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3212497533083607</v>
+        <v>0.320900339975815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4550364172065393</v>
+        <v>0.4539793357007373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -1336,19 +1336,19 @@
         <v>68222</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54206</v>
+        <v>55548</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81770</v>
+        <v>82090</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4084269205385933</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.324519945352954</v>
+        <v>0.3325515893009983</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.489535763444534</v>
+        <v>0.491455343648505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>150</v>
@@ -1357,19 +1357,19 @@
         <v>167467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147478</v>
+        <v>145799</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>189194</v>
+        <v>189636</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3944422016134673</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3473600071530301</v>
+        <v>0.3434068902440531</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4456174927527933</v>
+        <v>0.4466584281383095</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>55799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41660</v>
+        <v>42544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71009</v>
+        <v>69544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2166667665268992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1617668376893817</v>
+        <v>0.1652003392885636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2757286706362204</v>
+        <v>0.2700403520676865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1407,19 +1407,19 @@
         <v>31313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22119</v>
+        <v>21581</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43616</v>
+        <v>43599</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1874613798421954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1324229528021059</v>
+        <v>0.1292026540292554</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2611184282539907</v>
+        <v>0.2610185571564314</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1428,19 +1428,19 @@
         <v>87111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69901</v>
+        <v>70342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104364</v>
+        <v>105973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2051766299325923</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1646405257207123</v>
+        <v>0.1656804299375587</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2458126390346034</v>
+        <v>0.2496031297974417</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>46249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34694</v>
+        <v>34356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61524</v>
+        <v>59674</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1795859141488775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1347169902857905</v>
+        <v>0.133405914825291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.238898314895014</v>
+        <v>0.2317167503080406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1478,19 +1478,19 @@
         <v>30754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20424</v>
+        <v>21134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42644</v>
+        <v>41800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1841158289831976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1222716289196097</v>
+        <v>0.1265233146351419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2552972405006484</v>
+        <v>0.2502485780728974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -1499,19 +1499,19 @@
         <v>77003</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61279</v>
+        <v>62050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95123</v>
+        <v>94968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1813680970307147</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1443333862124888</v>
+        <v>0.1461486352341362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2240464569709052</v>
+        <v>0.2236825481811829</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>17618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10957</v>
+        <v>9682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27237</v>
+        <v>27765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06278777136604154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03904935552016284</v>
+        <v>0.03450744091820086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09707166203789237</v>
+        <v>0.09895306220163659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1624,19 +1624,19 @@
         <v>8975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4906</v>
+        <v>4020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16911</v>
+        <v>15669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08100987105808925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04428261428263386</v>
+        <v>0.03628646388639263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1526449377794979</v>
+        <v>0.1414279409354361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1645,19 +1645,19 @@
         <v>26593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17983</v>
+        <v>17576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37336</v>
+        <v>37623</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06794597148376944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04594746273274526</v>
+        <v>0.04490783308248104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09539692123999659</v>
+        <v>0.09612975126315285</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>31398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21382</v>
+        <v>21940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42618</v>
+        <v>42423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1118991830361556</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07620292731310326</v>
+        <v>0.07819337370205814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1518870522213143</v>
+        <v>0.1511916650131499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11075</v>
+        <v>10113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26252</v>
+        <v>26542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1563182340817533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09996049789706613</v>
+        <v>0.09127903449693529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.236958453503307</v>
+        <v>0.2395737970336079</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -1716,19 +1716,19 @@
         <v>48716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37045</v>
+        <v>37127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64077</v>
+        <v>63060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1244730553233737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09465223782124084</v>
+        <v>0.0948623514073625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1637207524833527</v>
+        <v>0.161122825262797</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>107486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91963</v>
+        <v>91563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123963</v>
+        <v>122799</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.383069842405628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3277494680930064</v>
+        <v>0.3263232640837967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4417956708626712</v>
+        <v>0.4376453205476178</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1766,19 +1766,19 @@
         <v>39137</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29852</v>
+        <v>29410</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49324</v>
+        <v>49528</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3532600895954253</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2694473652023016</v>
+        <v>0.265461712111743</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4452041366609961</v>
+        <v>0.4470463709988547</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>144</v>
@@ -1787,19 +1787,19 @@
         <v>146623</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126674</v>
+        <v>126284</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165036</v>
+        <v>163963</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3746314805783062</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3236601072962974</v>
+        <v>0.3226633554109094</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4216787751772534</v>
+        <v>0.4189370425515215</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>76325</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62622</v>
+        <v>62116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93024</v>
+        <v>93734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2720175036660969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2231793038854058</v>
+        <v>0.2213759687163972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3315307163700127</v>
+        <v>0.3340594486356102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1837,19 +1837,19 @@
         <v>24744</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16559</v>
+        <v>16767</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34577</v>
+        <v>35322</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2233401719739037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1494601764870125</v>
+        <v>0.1513421428833545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3120986724023393</v>
+        <v>0.3188199684270139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -1858,19 +1858,19 @@
         <v>101069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85379</v>
+        <v>85428</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119775</v>
+        <v>120801</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2582382234344709</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2181490926631741</v>
+        <v>0.218275322369871</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3060331865506107</v>
+        <v>0.3086555860722395</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>47764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36412</v>
+        <v>36844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60260</v>
+        <v>61910</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1702256995260779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1297697573777622</v>
+        <v>0.1313081170323728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2147607348636642</v>
+        <v>0.2206410278434245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1908,19 +1908,19 @@
         <v>20615</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12623</v>
+        <v>13232</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29262</v>
+        <v>30393</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1860716332908284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1139345403520307</v>
+        <v>0.1194382126309617</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2641263725640006</v>
+        <v>0.2743325067745533</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -1929,19 +1929,19 @@
         <v>68378</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54356</v>
+        <v>54983</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85433</v>
+        <v>86820</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1747112691800797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.138883283298209</v>
+        <v>0.1404864655521914</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2182877469308981</v>
+        <v>0.2218314334154879</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>44543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32164</v>
+        <v>31411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59046</v>
+        <v>58853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1050856339950645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07588056514899193</v>
+        <v>0.07410390403032219</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1392998771011746</v>
+        <v>0.1388450323990194</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -2054,19 +2054,19 @@
         <v>42808</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30862</v>
+        <v>30661</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57036</v>
+        <v>56963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1427749725759629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1029326154349784</v>
+        <v>0.1022626686526639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1902281514807539</v>
+        <v>0.1899847228170136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -2075,19 +2075,19 @@
         <v>87351</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69789</v>
+        <v>70419</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107842</v>
+        <v>108535</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1207001992556535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09643336288324728</v>
+        <v>0.09730361476118249</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1490136008905854</v>
+        <v>0.1499707821967612</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34040</v>
+        <v>34453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>61630</v>
+        <v>61578</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1096529979139885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.080306144041562</v>
+        <v>0.08127980692891844</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1453951253223995</v>
+        <v>0.1452739644352578</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -2125,19 +2125,19 @@
         <v>23318</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14749</v>
+        <v>14854</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32993</v>
+        <v>33349</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0777725684840726</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04919070698740095</v>
+        <v>0.04954090732818129</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1100408079322255</v>
+        <v>0.1112273010432077</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -2146,19 +2146,19 @@
         <v>69798</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53873</v>
+        <v>53899</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>88292</v>
+        <v>87603</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09644504403067694</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07444103961874755</v>
+        <v>0.07447593541740428</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1219999468294436</v>
+        <v>0.1210480808548815</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>147321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126994</v>
+        <v>127636</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168476</v>
+        <v>166623</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3475556953122528</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2996018889155067</v>
+        <v>0.3011145743181987</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3974640941991082</v>
+        <v>0.3930919089781669</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>93</v>
@@ -2196,19 +2196,19 @@
         <v>98283</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>81351</v>
+        <v>82798</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114378</v>
+        <v>118098</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.327797853725684</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2713238671310781</v>
+        <v>0.2761519995977681</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3814786738781386</v>
+        <v>0.3938850084818434</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>232</v>
@@ -2217,19 +2217,19 @@
         <v>245604</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>223174</v>
+        <v>218106</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>274008</v>
+        <v>269907</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3393700884940367</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3083775313426906</v>
+        <v>0.3013738386001972</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3786179626841085</v>
+        <v>0.3729512372510702</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>101961</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84081</v>
+        <v>85596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119324</v>
+        <v>122364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2405430744381786</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1983623448552672</v>
+        <v>0.2019362005149242</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2815067280609972</v>
+        <v>0.2886779164089497</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -2267,19 +2267,19 @@
         <v>70385</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55949</v>
+        <v>57254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86078</v>
+        <v>86445</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2347489998304826</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1866019467224519</v>
+        <v>0.1909571221551467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2870886475931551</v>
+        <v>0.2883132678017247</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -2288,19 +2288,19 @@
         <v>172345</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150054</v>
+        <v>149841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196848</v>
+        <v>198337</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2381426089619167</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2073420513183227</v>
+        <v>0.2070473918045979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2720000630328433</v>
+        <v>0.2740583038032003</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>83573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67969</v>
+        <v>67907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102142</v>
+        <v>100823</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1971625983405156</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1603512370391822</v>
+        <v>0.1602048661700377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2409717561645265</v>
+        <v>0.2378579226929914</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -2338,19 +2338,19 @@
         <v>65035</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50918</v>
+        <v>50905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79159</v>
+        <v>80683</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2169056053837979</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1698228697755344</v>
+        <v>0.1697796870882093</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.264014669282613</v>
+        <v>0.2690974911232055</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>142</v>
@@ -2359,19 +2359,19 @@
         <v>148607</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129513</v>
+        <v>126773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>171396</v>
+        <v>174465</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2053420592577162</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1789581864978873</v>
+        <v>0.1751716498213843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2368306343216732</v>
+        <v>0.2410713135496733</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>3853</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9281</v>
+        <v>9779</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02520134533067049</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006627048248291908</v>
+        <v>0.00664897237733412</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0607033766589749</v>
+        <v>0.06396458826416467</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -2484,19 +2484,19 @@
         <v>22178</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13850</v>
+        <v>14941</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32852</v>
+        <v>33219</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1276239512483008</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07970132482150566</v>
+        <v>0.08597852950698048</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1890490541909749</v>
+        <v>0.1911609942887829</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2505,19 +2505,19 @@
         <v>26031</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16991</v>
+        <v>17397</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37486</v>
+        <v>38025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07968707654591548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05201510446175462</v>
+        <v>0.05325823649649577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1147531547279673</v>
+        <v>0.1164054525436441</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>8152</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3880</v>
+        <v>3788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15220</v>
+        <v>15288</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05332241004862096</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.025374809950791</v>
+        <v>0.02477343785808419</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.099549495865183</v>
+        <v>0.09999471028915073</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2555,19 +2555,19 @@
         <v>10290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5138</v>
+        <v>5125</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17785</v>
+        <v>18210</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05921493564348022</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02956420757442245</v>
+        <v>0.02949050931154034</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1023452651543134</v>
+        <v>0.1047904172943303</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -2576,19 +2576,19 @@
         <v>18442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11726</v>
+        <v>11257</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28417</v>
+        <v>27257</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05645705559746252</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03589600225155395</v>
+        <v>0.03445947600711935</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08699212845995885</v>
+        <v>0.08344167653535306</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>50822</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39531</v>
+        <v>38725</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63689</v>
+        <v>64109</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3324134566412618</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2585612953646373</v>
+        <v>0.2532867250949307</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4165754578358748</v>
+        <v>0.4193183990887839</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -2626,19 +2626,19 @@
         <v>48129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35426</v>
+        <v>36625</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61210</v>
+        <v>60884</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.276963178886948</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2038614516556822</v>
+        <v>0.2107635697956484</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3522374161747485</v>
+        <v>0.3503631919429202</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>91</v>
@@ -2647,19 +2647,19 @@
         <v>98951</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>82870</v>
+        <v>81820</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>117304</v>
+        <v>116710</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3029155845410152</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2536877825912287</v>
+        <v>0.2504719918902757</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3590965548760595</v>
+        <v>0.3572787903735771</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>41740</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31933</v>
+        <v>32247</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54847</v>
+        <v>54324</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2730104101450775</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2088635774488906</v>
+        <v>0.2109192155114872</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3587408514566044</v>
+        <v>0.35531599100315</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -2697,19 +2697,19 @@
         <v>45963</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34298</v>
+        <v>35052</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>60508</v>
+        <v>59905</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.264498393336114</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1973725743353112</v>
+        <v>0.2017065135439999</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3481999693814639</v>
+        <v>0.3447258728426287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>80</v>
@@ -2718,19 +2718,19 @@
         <v>87703</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>70035</v>
+        <v>71474</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>104275</v>
+        <v>105321</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2684822744293566</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2143940815662854</v>
+        <v>0.2188012223823301</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.319213186519974</v>
+        <v>0.3224142943433443</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>48321</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37392</v>
+        <v>36487</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59838</v>
+        <v>61739</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3160523778343693</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2445719453403534</v>
+        <v>0.2386487202431893</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.391384064894083</v>
+        <v>0.4038162744340544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -2768,19 +2768,19 @@
         <v>47215</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35977</v>
+        <v>35686</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60937</v>
+        <v>60274</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.271699540885157</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2070307326512922</v>
+        <v>0.2053597053405977</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3506661353331321</v>
+        <v>0.3468513925658367</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2789,19 +2789,19 @@
         <v>95535</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>78845</v>
+        <v>79523</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>113840</v>
+        <v>115294</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2924580088862503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2413651762136079</v>
+        <v>0.2434407226513508</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3484943055588926</v>
+        <v>0.3529451437213927</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>126379</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>104635</v>
+        <v>104339</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>151602</v>
+        <v>150835</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08914461976053349</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07380663958639287</v>
+        <v>0.07359817387306686</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.106935726475292</v>
+        <v>0.1063950837273277</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -2914,19 +2914,19 @@
         <v>114595</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>95523</v>
+        <v>94554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>138962</v>
+        <v>136065</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1211566440811909</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1009921957701824</v>
+        <v>0.09996846663420686</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1469184294965911</v>
+        <v>0.1438564390710333</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>219</v>
@@ -2935,19 +2935,19 @@
         <v>240974</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>209303</v>
+        <v>212420</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>272736</v>
+        <v>273750</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1019552486066206</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.088555296406451</v>
+        <v>0.08987392918043913</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1153935679962253</v>
+        <v>0.1158224403319651</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>152166</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>129158</v>
+        <v>129897</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>178638</v>
+        <v>178300</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1073339909802384</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09110431081753406</v>
+        <v>0.0916261085433005</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1260062230495727</v>
+        <v>0.1257679505460884</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>100</v>
@@ -2985,19 +2985,19 @@
         <v>106567</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>88636</v>
+        <v>88542</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>128301</v>
+        <v>128661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.112669100889039</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09371114145454947</v>
+        <v>0.0936115221311194</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1356477908830846</v>
+        <v>0.136027721085946</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>239</v>
@@ -3006,19 +3006,19 @@
         <v>258733</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>226990</v>
+        <v>230422</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>292712</v>
+        <v>291228</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1094690047553786</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09603870702525789</v>
+        <v>0.09749057347464515</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1238454244646218</v>
+        <v>0.1232173388709469</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>533997</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>496649</v>
+        <v>493185</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>570211</v>
+        <v>570795</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3766674989134754</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3503227817606219</v>
+        <v>0.3478796327113017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4022116471485773</v>
+        <v>0.4026232288240893</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>299</v>
@@ -3056,19 +3056,19 @@
         <v>323636</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>293552</v>
+        <v>294254</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>354836</v>
+        <v>353271</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3421667875305067</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.31036094818494</v>
+        <v>0.311102948350389</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3751538430376291</v>
+        <v>0.373498824219297</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>803</v>
@@ -3077,19 +3077,19 @@
         <v>857633</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>809434</v>
+        <v>809880</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>910399</v>
+        <v>903961</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.362860942851103</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3424682398486252</v>
+        <v>0.3426569348880494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3851858173789039</v>
+        <v>0.3824619248231702</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>339361</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>307305</v>
+        <v>307517</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>372408</v>
+        <v>371500</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2393765419378339</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2167650824445299</v>
+        <v>0.2169142507855775</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2626866648643879</v>
+        <v>0.2620461850434894</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>190</v>
@@ -3127,19 +3127,19 @@
         <v>207347</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>183386</v>
+        <v>182913</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>233730</v>
+        <v>237211</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2192195850751204</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1938861528472726</v>
+        <v>0.1933866580639739</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2471135367402901</v>
+        <v>0.2507932575447877</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>509</v>
@@ -3148,19 +3148,19 @@
         <v>546709</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>509106</v>
+        <v>504034</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>592141</v>
+        <v>590425</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2313100950787336</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2154006762952727</v>
+        <v>0.2132547823698439</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2505325650429532</v>
+        <v>0.2498065012032147</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>265785</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>236520</v>
+        <v>238958</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>298728</v>
+        <v>296542</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1874773484079188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1668346630364192</v>
+        <v>0.1685543882621761</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2107148524904444</v>
+        <v>0.2091730007490554</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -3198,19 +3198,19 @@
         <v>193697</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>168967</v>
+        <v>170208</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>221466</v>
+        <v>218807</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.204787882424143</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1786421911085249</v>
+        <v>0.1799536661466389</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2341466500202482</v>
+        <v>0.2313353639212265</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>434</v>
@@ -3219,19 +3219,19 @@
         <v>459482</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>420205</v>
+        <v>419821</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>500710</v>
+        <v>497415</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1944047087081642</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1777870129115074</v>
+        <v>0.1776245907710009</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2118481542528244</v>
+        <v>0.2104541324243535</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>29467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20195</v>
+        <v>20274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41460</v>
+        <v>41889</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1067456758180535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07315686582894242</v>
+        <v>0.07344352585476592</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1501885696037681</v>
+        <v>0.1517414573747065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -3585,19 +3585,19 @@
         <v>23031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14564</v>
+        <v>14858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34199</v>
+        <v>34934</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1075363284813155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06800111541509157</v>
+        <v>0.06937203762756941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.159676995571696</v>
+        <v>0.1631124600166353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3606,19 +3606,19 @@
         <v>52499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40235</v>
+        <v>40963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69086</v>
+        <v>69042</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1070911026184893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08207376228408064</v>
+        <v>0.0835601331800615</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1409270413039442</v>
+        <v>0.1408367150176607</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>54726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42695</v>
+        <v>42355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70673</v>
+        <v>70901</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1982458088053602</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1546637505609084</v>
+        <v>0.1534322523230355</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2560134324074734</v>
+        <v>0.256839286489132</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3656,19 +3656,19 @@
         <v>35567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25420</v>
+        <v>25915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47286</v>
+        <v>49139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1660661157239305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1186875008162736</v>
+        <v>0.1209996943203636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2207837783357644</v>
+        <v>0.2294351914080703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -3677,19 +3677,19 @@
         <v>90293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73360</v>
+        <v>72611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108155</v>
+        <v>107941</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1841868813690513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1496443603804774</v>
+        <v>0.1481162670754187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.220621331791813</v>
+        <v>0.2201854705145618</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>114614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97794</v>
+        <v>96099</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130807</v>
+        <v>130915</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4151873731633847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3542587834286695</v>
+        <v>0.3481187331145901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4738456114202144</v>
+        <v>0.4742391946507392</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -3727,19 +3727,19 @@
         <v>84315</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68587</v>
+        <v>71037</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98768</v>
+        <v>98667</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3936754976333051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3202379399625251</v>
+        <v>0.331677855219125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4611599499478774</v>
+        <v>0.4606838621898299</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>188</v>
@@ -3748,19 +3748,19 @@
         <v>198929</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>176815</v>
+        <v>178559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>220533</v>
+        <v>222248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4057890890861873</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3606793679942848</v>
+        <v>0.3642363836850641</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4498595672338476</v>
+        <v>0.4533582654953955</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>44187</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33931</v>
+        <v>33305</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58898</v>
+        <v>58738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1600688060782985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1229138077838879</v>
+        <v>0.1206480062639512</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2133564010202693</v>
+        <v>0.2127776542821226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -3798,19 +3798,19 @@
         <v>38983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29076</v>
+        <v>28823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50619</v>
+        <v>50866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1820159805094163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.135759902516079</v>
+        <v>0.1345776154090032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2363465878779197</v>
+        <v>0.2374961779394364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -3819,19 +3819,19 @@
         <v>83171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67616</v>
+        <v>66757</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101841</v>
+        <v>101330</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1696572670986791</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1379285277529359</v>
+        <v>0.1361766932822731</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2077426177391867</v>
+        <v>0.2067004729136292</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>33058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22584</v>
+        <v>21894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45643</v>
+        <v>46461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.119752336134903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08180913690033789</v>
+        <v>0.07931039433590178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1653412208946198</v>
+        <v>0.1683038326220565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -3869,19 +3869,19 @@
         <v>32277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22244</v>
+        <v>22457</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43871</v>
+        <v>43875</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1507060776520326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1038575760889277</v>
+        <v>0.1048533601513794</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2048395957168792</v>
+        <v>0.2048579369549793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -3890,19 +3890,19 @@
         <v>65335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51483</v>
+        <v>50091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82582</v>
+        <v>81702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1332756598275929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1050179803822568</v>
+        <v>0.1021783431386459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1684572281219981</v>
+        <v>0.1666611152264894</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>16753</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9108</v>
+        <v>9444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26786</v>
+        <v>28176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06887352145396858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03744616038868289</v>
+        <v>0.03882678286237558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1101246319555257</v>
+        <v>0.1158371842843735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4015,19 +4015,19 @@
         <v>12216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6928</v>
+        <v>6821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19693</v>
+        <v>20110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06457711194134114</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03662040359740307</v>
+        <v>0.03605808424069139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1040998859897158</v>
+        <v>0.1063012862028777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -4036,19 +4036,19 @@
         <v>28969</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19400</v>
+        <v>19215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41154</v>
+        <v>41712</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06699388779708351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04486424856949304</v>
+        <v>0.04443767955087302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09517393943125252</v>
+        <v>0.09646219668770482</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>30309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20987</v>
+        <v>20841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42013</v>
+        <v>42024</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1246054515625848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08628238108619962</v>
+        <v>0.08568133475571449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1727234143763638</v>
+        <v>0.1727683021186956</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -4086,19 +4086,19 @@
         <v>33132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23507</v>
+        <v>25223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44425</v>
+        <v>45533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1751360886486756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1242578823134386</v>
+        <v>0.133332834888158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2348328039362844</v>
+        <v>0.2406913131864246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -4107,19 +4107,19 @@
         <v>63440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48940</v>
+        <v>49646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78165</v>
+        <v>79026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1467120700987627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1131791796906593</v>
+        <v>0.1148124384967893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1807648934761647</v>
+        <v>0.1827548131336077</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>93455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76857</v>
+        <v>78218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108897</v>
+        <v>109225</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3842121105668672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3159758392117766</v>
+        <v>0.3215719928675529</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4477009077303367</v>
+        <v>0.4490474940638561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -4157,19 +4157,19 @@
         <v>68173</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54677</v>
+        <v>53824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81349</v>
+        <v>80945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3603698650004704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2890259634877064</v>
+        <v>0.2845162060329064</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4300201280336172</v>
+        <v>0.427882370279378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>154</v>
@@ -4178,19 +4178,19 @@
         <v>161628</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144023</v>
+        <v>139598</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>183135</v>
+        <v>183081</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3737813806537608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.333067171262649</v>
+        <v>0.3228359142894703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4235183453898809</v>
+        <v>0.4233949736571554</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>54565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40536</v>
+        <v>41963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69058</v>
+        <v>69259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2243295322704797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1666503981781323</v>
+        <v>0.1725184118286512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2839132186854555</v>
+        <v>0.2847374160778778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -4228,19 +4228,19 @@
         <v>48948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37287</v>
+        <v>37793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62779</v>
+        <v>63062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2587414707408031</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1971028581193251</v>
+        <v>0.1997784634375903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3318565178523422</v>
+        <v>0.3333523570290586</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -4249,19 +4249,19 @@
         <v>103513</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84842</v>
+        <v>85196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121765</v>
+        <v>123499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2393843908814602</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1962050391463265</v>
+        <v>0.1970252887066379</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2815942828990932</v>
+        <v>0.2856052506534502</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>48156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35544</v>
+        <v>35926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62636</v>
+        <v>61607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1979793841460997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1461281010690455</v>
+        <v>0.1477013388026203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2575093670649589</v>
+        <v>0.253281709847941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -4299,19 +4299,19 @@
         <v>26707</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18049</v>
+        <v>17698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36261</v>
+        <v>37683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1411754636687098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09540933646677649</v>
+        <v>0.09355081215529835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1916781068944672</v>
+        <v>0.1991952646732537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -4320,19 +4320,19 @@
         <v>74863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60444</v>
+        <v>59769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>94071</v>
+        <v>95366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1731282705689328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1397838176721319</v>
+        <v>0.1382209012494756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2175487644601228</v>
+        <v>0.2205437193604155</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>8125</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3441</v>
+        <v>3165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15665</v>
+        <v>16947</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03756085035400584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01590548641494597</v>
+        <v>0.01463237804058596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07241441889658927</v>
+        <v>0.07834266923317686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4445,19 +4445,19 @@
         <v>5402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2514</v>
+        <v>2526</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11293</v>
+        <v>10846</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08296063941349274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03860948856605119</v>
+        <v>0.0387887534553134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1734226086225437</v>
+        <v>0.1665659473278501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4466,19 +4466,19 @@
         <v>13528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7709</v>
+        <v>7198</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22899</v>
+        <v>21853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04806506263631406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02739048867722173</v>
+        <v>0.02557462126991219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08136413025457977</v>
+        <v>0.07764630446530014</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>25480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16947</v>
+        <v>17611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35816</v>
+        <v>37705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1177850924013397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07834118012930237</v>
+        <v>0.08141012740861713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1655671519817681</v>
+        <v>0.1742957930014378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -4516,19 +4516,19 @@
         <v>8883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4237</v>
+        <v>4475</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16636</v>
+        <v>16327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1364093381719379</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06507285402101046</v>
+        <v>0.06871499653571028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2554782040548553</v>
+        <v>0.2507275979936573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -4537,19 +4537,19 @@
         <v>34363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24095</v>
+        <v>22956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47753</v>
+        <v>45874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1220942100255628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08561133251161664</v>
+        <v>0.08156611520227514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1696736251321606</v>
+        <v>0.1629942294597592</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>73944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60057</v>
+        <v>60177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87472</v>
+        <v>88977</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3418194925978252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2776251774210743</v>
+        <v>0.2781808406329535</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4043567743353411</v>
+        <v>0.4113129019310535</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -4587,19 +4587,19 @@
         <v>30028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22434</v>
+        <v>21812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38149</v>
+        <v>37574</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4611324013714487</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3445122027422819</v>
+        <v>0.334966525929513</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5858410886135482</v>
+        <v>0.5770191247405025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>101</v>
@@ -4608,19 +4608,19 @@
         <v>103972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>88658</v>
+        <v>87190</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121682</v>
+        <v>118672</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3694250860981749</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3150110436315766</v>
+        <v>0.3097965812492388</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4323498532849911</v>
+        <v>0.4216560105750696</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>79678</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65277</v>
+        <v>65691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94398</v>
+        <v>94592</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3683262654067049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3017529869592041</v>
+        <v>0.3036675437017832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4363728759042331</v>
+        <v>0.4372672349803063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4658,19 +4658,19 @@
         <v>11896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6575</v>
+        <v>6778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19111</v>
+        <v>20291</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1826776702976772</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1009653174172886</v>
+        <v>0.1040930772035936</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2934836970406551</v>
+        <v>0.3116010445586218</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -4679,19 +4679,19 @@
         <v>91574</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76505</v>
+        <v>76959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107858</v>
+        <v>107431</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3253724919787639</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2718315742162805</v>
+        <v>0.2734447936279965</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3832328682484798</v>
+        <v>0.3817154882852021</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>29098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19926</v>
+        <v>20190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41300</v>
+        <v>38843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1345082992401244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09211070557895296</v>
+        <v>0.09333391723380703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1909158557252728</v>
+        <v>0.1795575772026105</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -4729,19 +4729,19 @@
         <v>8909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4355</v>
+        <v>3711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16092</v>
+        <v>15532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1368199507454434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06687818190961846</v>
+        <v>0.05699494760860058</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2471240802988473</v>
+        <v>0.2385200939985967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -4750,19 +4750,19 @@
         <v>38007</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27184</v>
+        <v>26829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50711</v>
+        <v>50976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1350431492611844</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09658930353647042</v>
+        <v>0.09532715390574441</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1801816026734661</v>
+        <v>0.1811241033512282</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>39219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28648</v>
+        <v>27731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52914</v>
+        <v>52019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08041689859719223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05874162401316723</v>
+        <v>0.05686154893468583</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1084964002054871</v>
+        <v>0.10666112649409</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -4875,19 +4875,19 @@
         <v>29527</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20005</v>
+        <v>20553</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40652</v>
+        <v>39576</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08090844522069718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0548171945403982</v>
+        <v>0.0563172853861723</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1113918833871313</v>
+        <v>0.1084454825750151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -4896,19 +4896,19 @@
         <v>68746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53710</v>
+        <v>54485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86026</v>
+        <v>86364</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08062728671336855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06299287854285765</v>
+        <v>0.06390153729388924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.100893573985588</v>
+        <v>0.1012894342685401</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>45418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33596</v>
+        <v>33145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59291</v>
+        <v>59287</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09312732565491055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06888606313855813</v>
+        <v>0.06796213982996596</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1215730713825917</v>
+        <v>0.1215633871468804</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -4946,19 +4946,19 @@
         <v>37671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27646</v>
+        <v>26920</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>49928</v>
+        <v>50998</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1032257237315546</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07575450175170979</v>
+        <v>0.073766319430019</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1368113477690955</v>
+        <v>0.1397416585202377</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>80</v>
@@ -4967,19 +4967,19 @@
         <v>83090</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>68157</v>
+        <v>67609</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>101880</v>
+        <v>102813</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09744956661059963</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07993669217435156</v>
+        <v>0.07929353852209554</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1194869617210363</v>
+        <v>0.1205820377384237</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>142040</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122797</v>
+        <v>120471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>164859</v>
+        <v>162013</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2912430572094214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2517868830393262</v>
+        <v>0.2470184084581264</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3380325133028778</v>
+        <v>0.3321981748949952</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>132</v>
@@ -5017,19 +5017,19 @@
         <v>132543</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>113325</v>
+        <v>114885</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>150493</v>
+        <v>149660</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3631885211998166</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3105296978448991</v>
+        <v>0.3148036023660725</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4123761263299654</v>
+        <v>0.4100922494173234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>267</v>
@@ -5038,19 +5038,19 @@
         <v>274582</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>249001</v>
+        <v>247239</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>305373</v>
+        <v>302667</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3220366176013962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2920344043220063</v>
+        <v>0.2899680582267573</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3581495558762522</v>
+        <v>0.3549752883519518</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>158721</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>138427</v>
+        <v>138832</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178378</v>
+        <v>181565</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.325447824452838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2838362188538889</v>
+        <v>0.2846669824110091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3657524467784769</v>
+        <v>0.3722869414303138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>86</v>
@@ -5088,19 +5088,19 @@
         <v>84160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68549</v>
+        <v>68945</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101234</v>
+        <v>98861</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2306132069967399</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1878359815866807</v>
+        <v>0.1889209100090422</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2773976625789236</v>
+        <v>0.2708959068270223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>238</v>
@@ -5109,19 +5109,19 @@
         <v>242881</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>216719</v>
+        <v>215457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>269932</v>
+        <v>270153</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2848574194722816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2541736128225487</v>
+        <v>0.252693862829738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3165826285246335</v>
+        <v>0.3168424013137592</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>102303</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85159</v>
+        <v>85101</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120654</v>
+        <v>122127</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2097648940856378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1746131417303758</v>
+        <v>0.1744937745269574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.24739407870288</v>
+        <v>0.2504140406379486</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -5159,19 +5159,19 @@
         <v>81041</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65487</v>
+        <v>63984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97856</v>
+        <v>98525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2220641028511917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1794462926297621</v>
+        <v>0.175326054021265</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2681403871322253</v>
+        <v>0.269974231748297</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>171</v>
@@ -5180,19 +5180,19 @@
         <v>183343</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>157569</v>
+        <v>157803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>206832</v>
+        <v>208203</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2150291096023541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1848010613024079</v>
+        <v>0.1850752872463759</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2425781274115748</v>
+        <v>0.2441860984010687</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>3164</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8535</v>
+        <v>9416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01639189134294448</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005376555766062488</v>
+        <v>0.005403537584868257</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04421686302949561</v>
+        <v>0.04878342863677922</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -5305,19 +5305,19 @@
         <v>14086</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7705</v>
+        <v>7932</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22617</v>
+        <v>22118</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07127802985001512</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0389911486175997</v>
+        <v>0.0401381088200763</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1144495627323662</v>
+        <v>0.1119211509447434</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -5326,19 +5326,19 @@
         <v>17250</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10440</v>
+        <v>10051</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>26236</v>
+        <v>26650</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04415792687371757</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02672575452431743</v>
+        <v>0.02572839649052822</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06716107412984933</v>
+        <v>0.06822017323404067</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>11474</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6005</v>
+        <v>6072</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20849</v>
+        <v>19526</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05944450488007001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03111156176407655</v>
+        <v>0.03145522435915631</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.108016074455189</v>
+        <v>0.1011589456276819</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -5376,19 +5376,19 @@
         <v>18921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11900</v>
+        <v>11747</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29338</v>
+        <v>28654</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09574585930240287</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06021642292689038</v>
+        <v>0.05944346613082863</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1484549472269981</v>
+        <v>0.1449938536408388</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -5397,19 +5397,19 @@
         <v>30395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21219</v>
+        <v>21802</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42637</v>
+        <v>43225</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07780879000054416</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05431787792056331</v>
+        <v>0.05581064489278757</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1091459226880327</v>
+        <v>0.1106521630133344</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>78821</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65611</v>
+        <v>63560</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>93087</v>
+        <v>91432</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4083529179026679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3399129980120937</v>
+        <v>0.3292882995669147</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4822631402150688</v>
+        <v>0.4736867478650662</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -5447,19 +5447,19 @@
         <v>75952</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61847</v>
+        <v>63675</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>90925</v>
+        <v>91247</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3843356255874514</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3129613256344941</v>
+        <v>0.3222099628140762</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4601008596348953</v>
+        <v>0.4617310730341131</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>146</v>
@@ -5468,19 +5468,19 @@
         <v>154773</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>135405</v>
+        <v>136235</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>174377</v>
+        <v>175661</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3962029468914743</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3466222617142051</v>
+        <v>0.3487488449651646</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4463877524984063</v>
+        <v>0.449674143725634</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>56275</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43110</v>
+        <v>43894</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>69530</v>
+        <v>71193</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2915459915266189</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2233405213054293</v>
+        <v>0.2274024027775337</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3602154716204525</v>
+        <v>0.3688334803224185</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -5518,19 +5518,19 @@
         <v>52012</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>40151</v>
+        <v>39772</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>65514</v>
+        <v>64466</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2631935975173878</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2031751688478357</v>
+        <v>0.2012542085765247</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3315150510738256</v>
+        <v>0.3262156782372843</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>101</v>
@@ -5539,19 +5539,19 @@
         <v>108287</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>91529</v>
+        <v>90477</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>127201</v>
+        <v>127088</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2772029606474949</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2343048560621661</v>
+        <v>0.231612216715639</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3256211191425229</v>
+        <v>0.3253327728780565</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>43288</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32009</v>
+        <v>32113</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55467</v>
+        <v>55985</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2242646943476987</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1658299815391051</v>
+        <v>0.1663684759935223</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2873606874380604</v>
+        <v>0.2900432199111839</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -5589,19 +5589,19 @@
         <v>36648</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26831</v>
+        <v>26743</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48003</v>
+        <v>49268</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1854468877427428</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1357724644568016</v>
+        <v>0.1353284984434352</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2429065275957481</v>
+        <v>0.2493080867041889</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -5610,19 +5610,19 @@
         <v>79936</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>63270</v>
+        <v>65319</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97456</v>
+        <v>98008</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.204627375586769</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1619648777442126</v>
+        <v>0.1672109505289823</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2494771532962863</v>
+        <v>0.2508900610440418</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>96729</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77570</v>
+        <v>80227</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>115322</v>
+        <v>116263</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06829499539200556</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05476770450599199</v>
+        <v>0.05664429161207275</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08142249465638834</v>
+        <v>0.08208729065745134</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>84</v>
@@ -5735,19 +5735,19 @@
         <v>84263</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>69162</v>
+        <v>68319</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102708</v>
+        <v>101505</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08172704175504011</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06708063952366422</v>
+        <v>0.06626274341567422</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0996173642011893</v>
+        <v>0.09845002244753807</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>171</v>
@@ -5756,19 +5756,19 @@
         <v>180992</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>156027</v>
+        <v>156791</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>208041</v>
+        <v>209431</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07395366178829532</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06375288636963876</v>
+        <v>0.06406539578673771</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08500620518697849</v>
+        <v>0.08557391546937836</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>167407</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>142413</v>
+        <v>144513</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>192282</v>
+        <v>193903</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1181972460484602</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1005503390165801</v>
+        <v>0.1020325672779539</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1357602011219063</v>
+        <v>0.1369042297876654</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>131</v>
@@ -5806,19 +5806,19 @@
         <v>134174</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>113869</v>
+        <v>112613</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>157390</v>
+        <v>157310</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1301359344085283</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1104417369026067</v>
+        <v>0.1092241873193507</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1526532442003333</v>
+        <v>0.1525757110927533</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>289</v>
@@ -5827,19 +5827,19 @@
         <v>301581</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>271049</v>
+        <v>268338</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>337406</v>
+        <v>333393</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1232267890393787</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1107512679710175</v>
+        <v>0.1096436799056587</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1378649942926514</v>
+        <v>0.1362252032802618</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>502873</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>465928</v>
+        <v>468855</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>537120</v>
+        <v>540989</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3550515545853672</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3289672371193638</v>
+        <v>0.3310334688535518</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3792316929997656</v>
+        <v>0.3819636291997194</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>385</v>
@@ -5877,19 +5877,19 @@
         <v>391011</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>359263</v>
+        <v>360592</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>424119</v>
+        <v>423762</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3792436237983156</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3484508139888958</v>
+        <v>0.3497398443007657</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4113551202726673</v>
+        <v>0.4110086522299473</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>856</v>
@@ -5898,19 +5898,19 @@
         <v>893883</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>845349</v>
+        <v>846251</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>940000</v>
+        <v>946212</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3652432145463368</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3454117671072304</v>
+        <v>0.3457803812047314</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3840863704846885</v>
+        <v>0.3866247277103586</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>393427</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>359839</v>
+        <v>359948</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>425761</v>
+        <v>425197</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2777776071785972</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2540633763909099</v>
+        <v>0.2541402709769292</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3006068983653278</v>
+        <v>0.3002091611637761</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>230</v>
@@ -5948,19 +5948,19 @@
         <v>235999</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>212199</v>
+        <v>209610</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>267793</v>
+        <v>264808</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2288964275216668</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2058132580652439</v>
+        <v>0.2033016437039412</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2597333401305551</v>
+        <v>0.2568384784383977</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>601</v>
@@ -5969,19 +5969,19 @@
         <v>629425</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>584494</v>
+        <v>582347</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>673780</v>
+        <v>671743</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2571848932123251</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2388258686371963</v>
+        <v>0.2379484723469594</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2753083405951769</v>
+        <v>0.2744761915142276</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>255902</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>225428</v>
+        <v>228112</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>287605</v>
+        <v>288842</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1806785967955699</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1591625262224855</v>
+        <v>0.1610575965564047</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2030626933642761</v>
+        <v>0.2039359655800821</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>177</v>
@@ -6019,19 +6019,19 @@
         <v>185582</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>160357</v>
+        <v>161949</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>210804</v>
+        <v>213888</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1799969725164493</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1555311863967203</v>
+        <v>0.1570752791824518</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2044595505554809</v>
+        <v>0.2074506750489259</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>407</v>
@@ -6040,19 +6040,19 @@
         <v>441484</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>404223</v>
+        <v>402015</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>482378</v>
+        <v>483440</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.180391441413664</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1651664625075061</v>
+        <v>0.1642644823368362</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1971010746944938</v>
+        <v>0.1975348025767386</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>36409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26124</v>
+        <v>25971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48578</v>
+        <v>48334</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3699955401244047</v>
+        <v>0.3699955401244048</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2654698433693374</v>
+        <v>0.2639199668709595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4936552315480108</v>
+        <v>0.491176706890622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -6406,19 +6406,19 @@
         <v>26682</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19239</v>
+        <v>19818</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35656</v>
+        <v>35703</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3086865445339533</v>
+        <v>0.3086865445339532</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2225760217037068</v>
+        <v>0.2292788323803438</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.412505357957105</v>
+        <v>0.4130478764882315</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -6427,19 +6427,19 @@
         <v>63091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51050</v>
+        <v>49750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76956</v>
+        <v>77775</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3413256614745028</v>
+        <v>0.3413256614745027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2761821468174986</v>
+        <v>0.2691486398131633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4163361628927689</v>
+        <v>0.4207623220739127</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>12770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6265</v>
+        <v>6831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23666</v>
+        <v>23014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1297669200660877</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06366676933624744</v>
+        <v>0.06941855631935318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2404942457122994</v>
+        <v>0.2338672902223968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -6477,19 +6477,19 @@
         <v>15798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9811</v>
+        <v>9734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22926</v>
+        <v>23564</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1827619677396701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1135066570686191</v>
+        <v>0.1126089238644534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2652271917675976</v>
+        <v>0.2726144653724934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -6498,19 +6498,19 @@
         <v>28567</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20417</v>
+        <v>19180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40673</v>
+        <v>40039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1545489536194805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1104558151244707</v>
+        <v>0.1037657354798244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2200444771564356</v>
+        <v>0.216610867396773</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>22738</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14117</v>
+        <v>13878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37117</v>
+        <v>35361</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2310681041808598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1434599518831352</v>
+        <v>0.1410266800213726</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3771866929618</v>
+        <v>0.3593450853505792</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -6548,19 +6548,19 @@
         <v>25828</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18110</v>
+        <v>19039</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33587</v>
+        <v>34478</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2988047046721648</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2095121034365209</v>
+        <v>0.2202625589522943</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3885664942038768</v>
+        <v>0.3988778235266435</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -6569,19 +6569,19 @@
         <v>48566</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37815</v>
+        <v>36636</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61242</v>
+        <v>61763</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.262743718787488</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.204580911118702</v>
+        <v>0.1982014291513235</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3313229050824258</v>
+        <v>0.3341370491352487</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>16125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9763</v>
+        <v>9781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25508</v>
+        <v>25053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1638676821117253</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09921086056327703</v>
+        <v>0.09939577837124133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.259211346291218</v>
+        <v>0.2545875248414877</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -6619,19 +6619,19 @@
         <v>11418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6745</v>
+        <v>6455</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18136</v>
+        <v>17727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.132095152880629</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07803504553044806</v>
+        <v>0.07468265656327359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2098120413034292</v>
+        <v>0.2050779966853346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -6640,19 +6640,19 @@
         <v>27543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19005</v>
+        <v>19522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39488</v>
+        <v>37884</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1490099186027457</v>
+        <v>0.1490099186027458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.102818396832922</v>
+        <v>0.1056166714414029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2136314373737616</v>
+        <v>0.2049547879805602</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>10362</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5303</v>
+        <v>4635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19398</v>
+        <v>18310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1053017535169226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05388603494773014</v>
+        <v>0.04710010598493758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1971211770454855</v>
+        <v>0.1860673305859083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -6690,19 +6690,19 @@
         <v>6712</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3195</v>
+        <v>3391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13163</v>
+        <v>13691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0776516301735828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03695917308009358</v>
+        <v>0.0392359494062629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1522821370217079</v>
+        <v>0.1583914321807605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -6711,19 +6711,19 @@
         <v>17074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10327</v>
+        <v>9647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26715</v>
+        <v>27161</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09237174751578305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05586692288613397</v>
+        <v>0.05218816012277289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1445288002698185</v>
+        <v>0.1469423372345151</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>15537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8483</v>
+        <v>8831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24257</v>
+        <v>23834</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2112042533526504</v>
+        <v>0.2112042533526505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1153059612624363</v>
+        <v>0.1200416385293376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3297337497335574</v>
+        <v>0.3239863608560418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -6836,19 +6836,19 @@
         <v>14024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8596</v>
+        <v>8721</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20841</v>
+        <v>21317</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2098068497060167</v>
+        <v>0.2098068497060165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1285966091489142</v>
+        <v>0.1304740681933078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3118047064213161</v>
+        <v>0.3189151471495057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -6857,19 +6857,19 @@
         <v>29561</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20543</v>
+        <v>20548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40242</v>
+        <v>40577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2105390138016091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.146309767561797</v>
+        <v>0.146347917794725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2866082725215218</v>
+        <v>0.2889954417363041</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>5497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2101</v>
+        <v>1750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12589</v>
+        <v>12243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07471802670368084</v>
+        <v>0.07471802670368087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02856201766143564</v>
+        <v>0.02378203354625407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1711297128605258</v>
+        <v>0.1664200762305632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -6907,19 +6907,19 @@
         <v>10610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5820</v>
+        <v>5852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18026</v>
+        <v>17814</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1587362938437012</v>
+        <v>0.1587362938437011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08707297909468582</v>
+        <v>0.08754485328238723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2696861667122873</v>
+        <v>0.2665078301437108</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -6928,19 +6928,19 @@
         <v>16107</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9930</v>
+        <v>9879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25157</v>
+        <v>25609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1147152561700131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07072254096679381</v>
+        <v>0.07035724887401155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1791698983734408</v>
+        <v>0.1823887326708817</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>30596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22062</v>
+        <v>21479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39946</v>
+        <v>40582</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4158973778555594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2998881946539051</v>
+        <v>0.2919649623919259</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5429911882920481</v>
+        <v>0.5516382454528772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -6978,19 +6978,19 @@
         <v>19548</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13508</v>
+        <v>13507</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25589</v>
+        <v>26166</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2924521013875324</v>
+        <v>0.2924521013875323</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2020918500514033</v>
+        <v>0.2020769480582504</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3828395542732029</v>
+        <v>0.3914617979073727</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -6999,19 +6999,19 @@
         <v>50144</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39497</v>
+        <v>39619</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61901</v>
+        <v>62117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3571307641476382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2813029459501883</v>
+        <v>0.2821757222885029</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4408659592366195</v>
+        <v>0.4424095575063155</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>18255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10498</v>
+        <v>11316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27814</v>
+        <v>28612</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2481396934798991</v>
+        <v>0.2481396934798992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1427069635397109</v>
+        <v>0.1538162667270191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3780835665633878</v>
+        <v>0.3889272814853706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -7049,19 +7049,19 @@
         <v>15650</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9795</v>
+        <v>9707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23096</v>
+        <v>22582</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2341400002268951</v>
+        <v>0.234140000226895</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1465392208579022</v>
+        <v>0.1452287958873974</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.345538906890982</v>
+        <v>0.3378530155157946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -7070,19 +7070,19 @@
         <v>33905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24956</v>
+        <v>24580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45545</v>
+        <v>44936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2414750839543839</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1777435397802404</v>
+        <v>0.175063039904694</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3243778816188418</v>
+        <v>0.3200430138229662</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>3681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10242</v>
+        <v>11177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05004064860821021</v>
+        <v>0.05004064860821022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01357714819532889</v>
+        <v>0.01354538785134779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1392272954663565</v>
+        <v>0.1519335416771876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -7120,19 +7120,19 @@
         <v>7009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3087</v>
+        <v>3045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13934</v>
+        <v>13737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1048647548358549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04617992310492071</v>
+        <v>0.04555507775186259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2084618145630146</v>
+        <v>0.2055239383514409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -7141,19 +7141,19 @@
         <v>10691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5907</v>
+        <v>5495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18950</v>
+        <v>18168</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07613988192635583</v>
+        <v>0.0761398819263558</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0420701468955485</v>
+        <v>0.03913363612998849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.134964792097</v>
+        <v>0.1293918622795728</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>10792</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5333</v>
+        <v>4806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19711</v>
+        <v>19142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1556856077064686</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07693129214805042</v>
+        <v>0.06933840719442108</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2843526178886029</v>
+        <v>0.2761418936604269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5340</v>
+        <v>4214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03552469597139488</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1911832522954969</v>
+        <v>0.1508817080587359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -7287,19 +7287,19 @@
         <v>11784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5746</v>
+        <v>5592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21431</v>
+        <v>19304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1211737659892625</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05908843992917681</v>
+        <v>0.05749888731943668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2203714350889976</v>
+        <v>0.1985048483724745</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>7197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3101</v>
+        <v>2861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14088</v>
+        <v>14042</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1038285640315405</v>
+        <v>0.1038285640315404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0447380802246153</v>
+        <v>0.04127807458240973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2032375287912083</v>
+        <v>0.2025764185884221</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -7337,19 +7337,19 @@
         <v>6482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3263</v>
+        <v>3004</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11078</v>
+        <v>11100</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2320601762348374</v>
+        <v>0.2320601762348375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.116834527410504</v>
+        <v>0.1075666457114535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3966165362051453</v>
+        <v>0.3974177045983842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -7358,19 +7358,19 @@
         <v>13679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7955</v>
+        <v>7667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20470</v>
+        <v>21598</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1406584202601578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08179730604325726</v>
+        <v>0.07884395248830871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2104917952956875</v>
+        <v>0.2220851846132909</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>26598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18164</v>
+        <v>17342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36366</v>
+        <v>36697</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3837116342215251</v>
+        <v>0.383711634221525</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2620343740160609</v>
+        <v>0.2501866751339659</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5246237816350988</v>
+        <v>0.5293985022701249</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -7408,19 +7408,19 @@
         <v>7554</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3893</v>
+        <v>3828</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12381</v>
+        <v>12399</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2704588063076833</v>
+        <v>0.2704588063076834</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1393822302856038</v>
+        <v>0.137039933300989</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4432646752574295</v>
+        <v>0.4439143625023729</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -7429,19 +7429,19 @@
         <v>34152</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>25147</v>
+        <v>23744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46133</v>
+        <v>46027</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3511838877642916</v>
+        <v>0.3511838877642917</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2585860494079944</v>
+        <v>0.2441615604906701</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4743849455614101</v>
+        <v>0.4732878686928792</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>17375</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8968</v>
+        <v>10002</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28292</v>
+        <v>29232</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2506512912211838</v>
+        <v>0.2506512912211837</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1293806236859392</v>
+        <v>0.144295183301118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4081452351227177</v>
+        <v>0.4217101246461823</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -7479,19 +7479,19 @@
         <v>11122</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6268</v>
+        <v>6732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17093</v>
+        <v>17012</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3981797200646944</v>
+        <v>0.3981797200646946</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2244023912319864</v>
+        <v>0.2410260681978354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6119755667461014</v>
+        <v>0.609058312294561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -7500,19 +7500,19 @@
         <v>28496</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18526</v>
+        <v>18460</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40288</v>
+        <v>40952</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2930234546103968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1905007509725738</v>
+        <v>0.1898199061861479</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4142720675888659</v>
+        <v>0.4211025500600362</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>7356</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2867</v>
+        <v>3079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14589</v>
+        <v>14921</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1061229028192818</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04136014383099921</v>
+        <v>0.04441875020940438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2104673142452927</v>
+        <v>0.2152518209542633</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7553,16 +7553,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5715</v>
+        <v>5906</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0637766014213898</v>
+        <v>0.06377660142138981</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.204598496965942</v>
+        <v>0.2114626397783126</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -7571,19 +7571,19 @@
         <v>9138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4162</v>
+        <v>4188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17266</v>
+        <v>17399</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09396047137589116</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04279643468191106</v>
+        <v>0.04306428889664114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1775475723246324</v>
+        <v>0.1789139970537889</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>16431</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10025</v>
+        <v>9720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26072</v>
+        <v>26305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1227981897689352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07492450540716691</v>
+        <v>0.072640211971069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1948472529090769</v>
+        <v>0.1965880544216952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -7696,19 +7696,19 @@
         <v>8487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4621</v>
+        <v>4578</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14259</v>
+        <v>14805</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07301780640142042</v>
+        <v>0.07301780640142043</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03975794346423561</v>
+        <v>0.0393854067214706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1226820180932667</v>
+        <v>0.127382585579958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -7717,19 +7717,19 @@
         <v>24918</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16286</v>
+        <v>16639</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36018</v>
+        <v>36145</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0996581559301927</v>
+        <v>0.09965815593019271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06513703902441698</v>
+        <v>0.06654836546718862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1440519417502942</v>
+        <v>0.1445599073564035</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>18789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11520</v>
+        <v>10942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30539</v>
+        <v>30853</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1404194895741893</v>
+        <v>0.1404194895741892</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08609699605605343</v>
+        <v>0.08177481593266067</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2282278441877977</v>
+        <v>0.2305774318993927</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -7767,19 +7767,19 @@
         <v>8437</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4498</v>
+        <v>4074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14700</v>
+        <v>14112</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.07259419268967987</v>
+        <v>0.07259419268967988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03869727398662991</v>
+        <v>0.03505229460544601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1264736651686997</v>
+        <v>0.1214173242114562</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -7788,19 +7788,19 @@
         <v>27227</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17922</v>
+        <v>18519</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>39635</v>
+        <v>39662</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1088914144799645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07167843813860482</v>
+        <v>0.07406434828068843</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.158517043270159</v>
+        <v>0.1586283855612914</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>53416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40359</v>
+        <v>41301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65711</v>
+        <v>66077</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3992002550413131</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3016175441991905</v>
+        <v>0.3086597239459233</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4910843165831011</v>
+        <v>0.4938159293823482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>57</v>
@@ -7838,19 +7838,19 @@
         <v>43840</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34986</v>
+        <v>35304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>54132</v>
+        <v>54207</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3771985970478122</v>
+        <v>0.3771985970478123</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3010194083688458</v>
+        <v>0.3037539114874132</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4657455919409614</v>
+        <v>0.4663940009227251</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>106</v>
@@ -7859,19 +7859,19 @@
         <v>97256</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82257</v>
+        <v>83014</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>113308</v>
+        <v>112865</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3889729511107796</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3289826345781037</v>
+        <v>0.3320099450028615</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4531698973713877</v>
+        <v>0.4513993684448831</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>28352</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18863</v>
+        <v>19193</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40024</v>
+        <v>39250</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2118873860796513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.140973716153096</v>
+        <v>0.1434352754052376</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2991159174123284</v>
+        <v>0.2933340369206526</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -7909,19 +7909,19 @@
         <v>32178</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24120</v>
+        <v>24209</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41008</v>
+        <v>41158</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2768541624386896</v>
+        <v>0.2768541624386897</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2075265883064731</v>
+        <v>0.2082882430693385</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3528280641273118</v>
+        <v>0.3541221699026032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -7930,19 +7930,19 @@
         <v>60530</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47368</v>
+        <v>48319</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74371</v>
+        <v>76286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2420866995771684</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1894464378083001</v>
+        <v>0.1932503301196605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2974416322108682</v>
+        <v>0.3051037194706388</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>16819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9018</v>
+        <v>8865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28802</v>
+        <v>27574</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1256946795359113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06739450262950274</v>
+        <v>0.0662523082302295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2152457552726856</v>
+        <v>0.2060723715356199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -7980,19 +7980,19 @@
         <v>23284</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16497</v>
+        <v>15767</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31971</v>
+        <v>32415</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2003352414223978</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1419417936178894</v>
+        <v>0.1356619416831612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2750741413750564</v>
+        <v>0.2788957526342302</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -8001,19 +8001,19 @@
         <v>40103</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29306</v>
+        <v>29303</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54499</v>
+        <v>54502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1603907789018949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1172064636660107</v>
+        <v>0.1171948773941393</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2179650098013468</v>
+        <v>0.2179768713796896</v>
       </c>
     </row>
     <row r="27">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5767</v>
+        <v>5620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0176281539880546</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06117776918923291</v>
+        <v>0.05961847507968895</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -8126,19 +8126,19 @@
         <v>6767</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3239</v>
+        <v>3442</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12066</v>
+        <v>12237</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07882564754884658</v>
+        <v>0.07882564754884659</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03772617531777148</v>
+        <v>0.04008957619852609</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1405524129356846</v>
+        <v>0.1425394145610922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -8147,19 +8147,19 @@
         <v>8429</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4020</v>
+        <v>4225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>14827</v>
+        <v>15021</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04679701748050392</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02231682388065295</v>
+        <v>0.02345591126336692</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08232315139658838</v>
+        <v>0.08339761414209031</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>4144</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11171</v>
+        <v>11631</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04396672691185799</v>
+        <v>0.043966726911858</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01210860486463856</v>
+        <v>0.01206281775956939</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1185073068549994</v>
+        <v>0.123387901591657</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -8197,19 +8197,19 @@
         <v>4022</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1359</v>
+        <v>1388</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9793</v>
+        <v>9250</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04684749068851018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01582886334030503</v>
+        <v>0.01616313221327313</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1140721507117814</v>
+        <v>0.1077541932499981</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -8218,19 +8218,19 @@
         <v>8166</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3575</v>
+        <v>3265</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16770</v>
+        <v>15880</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04533979957326836</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01984813242180802</v>
+        <v>0.01812840367609073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09311181794102917</v>
+        <v>0.08816508889168884</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>27136</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17765</v>
+        <v>17346</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40594</v>
+        <v>38500</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2878742914537061</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1884616549173502</v>
+        <v>0.1840116886983108</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.430637223581668</v>
+        <v>0.4084302473057511</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>33</v>
@@ -8268,19 +8268,19 @@
         <v>23031</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16958</v>
+        <v>16587</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31160</v>
+        <v>30110</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2682755887524771</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.197531918481924</v>
+        <v>0.1932138105061406</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.362966089951192</v>
+        <v>0.3507389417109972</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -8289,19 +8289,19 @@
         <v>50167</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39012</v>
+        <v>38237</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64540</v>
+        <v>64495</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2785328650249691</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2165993708573788</v>
+        <v>0.2122970993177456</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3583359387130439</v>
+        <v>0.3580872588075453</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>35891</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24359</v>
+        <v>25754</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>47220</v>
+        <v>49696</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3807473871831313</v>
+        <v>0.3807473871831314</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.25840960662727</v>
+        <v>0.2732076686493511</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5009310580146773</v>
+        <v>0.5272041762346926</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -8339,19 +8339,19 @@
         <v>26294</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18914</v>
+        <v>19365</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34253</v>
+        <v>34529</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3062833463748458</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2203262378980962</v>
+        <v>0.2255790557614587</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3990061733742725</v>
+        <v>0.4022197768162835</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>64</v>
@@ -8360,19 +8360,19 @@
         <v>62184</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50000</v>
+        <v>49061</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76652</v>
+        <v>76351</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3452552237781805</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2776080069770941</v>
+        <v>0.2723939233522602</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4255800542750369</v>
+        <v>0.4239100312949937</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>25431</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14336</v>
+        <v>13827</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41299</v>
+        <v>39255</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2697834404632499</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1520879743676536</v>
+        <v>0.1466863707158587</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4381155893908482</v>
+        <v>0.4164353871997828</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -8410,19 +8410,19 @@
         <v>25734</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18842</v>
+        <v>18446</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34753</v>
+        <v>34147</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2997679266353204</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2194859889077552</v>
+        <v>0.2148754287752128</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4048280623831795</v>
+        <v>0.397766261360661</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -8431,19 +8431,19 @@
         <v>51165</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37256</v>
+        <v>37551</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68194</v>
+        <v>68030</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2840750941430781</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2068527223232504</v>
+        <v>0.2084862522804201</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3786212781593556</v>
+        <v>0.3777106561528991</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>80832</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64343</v>
+        <v>62637</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>100648</v>
+        <v>98403</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1722164633881584</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1370860715291355</v>
+        <v>0.1334510624563272</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2144371763336607</v>
+        <v>0.2096539723320465</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>71</v>
@@ -8556,19 +8556,19 @@
         <v>56952</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44993</v>
+        <v>44536</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70726</v>
+        <v>70533</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1485888248678089</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1173870305980758</v>
+        <v>0.1161948591689854</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.184526110430399</v>
+        <v>0.184023357460112</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>137</v>
@@ -8577,19 +8577,19 @@
         <v>137783</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>116392</v>
+        <v>114303</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>159111</v>
+        <v>161163</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1615952683009137</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.136507320429282</v>
+        <v>0.134057336442867</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.186608630261444</v>
+        <v>0.189016151937233</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>48397</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34489</v>
+        <v>35914</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>64543</v>
+        <v>66816</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1031132218065299</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07348128623913172</v>
+        <v>0.07651604580364993</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1375121026879663</v>
+        <v>0.1423553423216568</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -8627,19 +8627,19 @@
         <v>45348</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35262</v>
+        <v>34225</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>57666</v>
+        <v>57130</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.118315629869377</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09199852402213143</v>
+        <v>0.08929371518374279</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1504528233973613</v>
+        <v>0.1490539544973016</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>97</v>
@@ -8648,19 +8648,19 @@
         <v>93746</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>75439</v>
+        <v>76235</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>114207</v>
+        <v>114118</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1099470719897522</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08847623116227707</v>
+        <v>0.08941066770783332</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1339450016011828</v>
+        <v>0.1338395650428451</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>160484</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137440</v>
+        <v>135819</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>184242</v>
+        <v>182212</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3419215897750341</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2928251642421549</v>
+        <v>0.2893709459134214</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3925384649063729</v>
+        <v>0.3882132809974353</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>166</v>
@@ -8698,19 +8698,19 @@
         <v>119801</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>105770</v>
+        <v>105935</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>136354</v>
+        <v>135851</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3125653805371708</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.275956037519828</v>
+        <v>0.2763885674285262</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3557521162139736</v>
+        <v>0.3544404156803821</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>305</v>
@@ -8719,19 +8719,19 @@
         <v>280286</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>253591</v>
+        <v>253243</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>312349</v>
+        <v>310593</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3287252635713476</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2974169655660056</v>
+        <v>0.2970088010156604</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3663296851175057</v>
+        <v>0.3642705126935771</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>115997</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>95772</v>
+        <v>95100</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>142055</v>
+        <v>140017</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2471396862251041</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2040475549168401</v>
+        <v>0.2026170024900275</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3026570703291795</v>
+        <v>0.2983138962915516</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>120</v>
@@ -8769,19 +8769,19 @@
         <v>96661</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81828</v>
+        <v>81770</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>114135</v>
+        <v>113312</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2521922929664857</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2134927208239271</v>
+        <v>0.2133402336724927</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2977807804395781</v>
+        <v>0.2956341984508021</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>214</v>
@@ -8790,19 +8790,19 @@
         <v>212659</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>188410</v>
+        <v>184094</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>240649</v>
+        <v>240168</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2494109551821403</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2209717666632012</v>
+        <v>0.2159100586494999</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2822380415564868</v>
+        <v>0.2816741857883062</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>63649</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>47320</v>
+        <v>46910</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>84842</v>
+        <v>86413</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1356090388051735</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1008185554139723</v>
+        <v>0.09994517551961578</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1807609810338051</v>
+        <v>0.1841083888869669</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>75</v>
@@ -8840,19 +8840,19 @@
         <v>64521</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>51233</v>
+        <v>52631</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>78024</v>
+        <v>80145</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1683378717591575</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1336690940574627</v>
+        <v>0.1373151615901824</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2035657703043693</v>
+        <v>0.2091015758858124</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>117</v>
@@ -8861,19 +8861,19 @@
         <v>128171</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>106124</v>
+        <v>105711</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>152579</v>
+        <v>153437</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1503214409558462</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1244643075498801</v>
+        <v>0.1239806696972012</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1789480362416035</v>
+        <v>0.1799541653701419</v>
       </c>
     </row>
     <row r="39">
